--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Carter.Spring.012420.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Carter.Spring.012420.xlsx_with_dialog_acts.xlsx
@@ -643,12 +643,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -727,12 +727,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -895,12 +895,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1441,12 +1441,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1861,12 +1861,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1945,12 +1945,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1987,12 +1987,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2029,12 +2029,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2281,12 +2281,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2751,12 +2751,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2881,12 +2881,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3179,12 +3179,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3221,12 +3221,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3305,12 +3305,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3389,12 +3389,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3683,12 +3683,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3767,12 +3767,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4061,12 +4061,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4145,12 +4145,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4187,12 +4187,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4275,12 +4275,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4401,12 +4401,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4485,12 +4485,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4695,12 +4695,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5535,12 +5535,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5619,12 +5619,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5917,12 +5917,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6085,12 +6085,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6383,12 +6383,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6891,12 +6891,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7059,12 +7059,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7353,12 +7353,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7521,12 +7521,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7983,12 +7983,12 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8025,12 +8025,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8277,12 +8277,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8529,12 +8529,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9037,12 +9037,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9289,12 +9289,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9331,12 +9331,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9457,12 +9457,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9499,12 +9499,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10091,12 +10091,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10301,12 +10301,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10469,12 +10469,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10511,12 +10511,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10889,12 +10889,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11183,12 +11183,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12321,12 +12321,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12657,12 +12657,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12909,12 +12909,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13035,12 +13035,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13245,12 +13245,12 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14551,12 +14551,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15265,12 +15265,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15307,12 +15307,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15391,12 +15391,12 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15851,12 +15851,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16395,12 +16395,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16479,12 +16479,12 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16731,12 +16731,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17319,12 +17319,12 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17361,12 +17361,12 @@
       <c r="H402" t="inlineStr"/>
       <c r="I402" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17407,12 +17407,12 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17449,12 +17449,12 @@
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17659,12 +17659,12 @@
       <c r="H409" t="inlineStr"/>
       <c r="I409" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17743,12 +17743,12 @@
       <c r="H411" t="inlineStr"/>
       <c r="I411" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17785,12 +17785,12 @@
       <c r="H412" t="inlineStr"/>
       <c r="I412" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18205,12 +18205,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18415,12 +18415,12 @@
       <c r="H427" t="inlineStr"/>
       <c r="I427" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18667,12 +18667,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18835,12 +18835,12 @@
       <c r="H437" t="inlineStr"/>
       <c r="I437" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18919,12 +18919,12 @@
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19171,12 +19171,12 @@
       <c r="H445" t="inlineStr"/>
       <c r="I445" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19507,12 +19507,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19549,12 +19549,12 @@
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19633,12 +19633,12 @@
       <c r="H456" t="inlineStr"/>
       <c r="I456" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19927,12 +19927,12 @@
       <c r="H463" t="inlineStr"/>
       <c r="I463" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20809,12 +20809,12 @@
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20851,12 +20851,12 @@
       <c r="H485" t="inlineStr"/>
       <c r="I485" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20977,12 +20977,12 @@
       <c r="H488" t="inlineStr"/>
       <c r="I488" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21145,12 +21145,12 @@
       <c r="H492" t="inlineStr"/>
       <c r="I492" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22543,12 +22543,12 @@
       <c r="H525" t="inlineStr"/>
       <c r="I525" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22669,12 +22669,12 @@
       <c r="H528" t="inlineStr"/>
       <c r="I528" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22753,12 +22753,12 @@
       <c r="H530" t="inlineStr"/>
       <c r="I530" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22795,12 +22795,12 @@
       <c r="H531" t="inlineStr"/>
       <c r="I531" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22921,12 +22921,12 @@
       <c r="H534" t="inlineStr"/>
       <c r="I534" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23635,12 +23635,12 @@
       <c r="H551" t="inlineStr"/>
       <c r="I551" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23803,12 +23803,12 @@
       <c r="H555" t="inlineStr"/>
       <c r="I555" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24479,12 +24479,12 @@
       <c r="H571" t="inlineStr"/>
       <c r="I571" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24647,12 +24647,12 @@
       <c r="H575" t="inlineStr"/>
       <c r="I575" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24983,12 +24983,12 @@
       <c r="H583" t="inlineStr"/>
       <c r="I583" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25067,12 +25067,12 @@
       <c r="H585" t="inlineStr"/>
       <c r="I585" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25487,12 +25487,12 @@
       <c r="H595" t="inlineStr"/>
       <c r="I595" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25743,12 +25743,12 @@
       <c r="H601" t="inlineStr"/>
       <c r="I601" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26037,12 +26037,12 @@
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26331,12 +26331,12 @@
       <c r="H615" t="inlineStr"/>
       <c r="I615" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26961,12 +26961,12 @@
       <c r="H630" t="inlineStr"/>
       <c r="I630" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27217,12 +27217,12 @@
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27259,12 +27259,12 @@
       <c r="H637" t="inlineStr"/>
       <c r="I637" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27477,12 +27477,12 @@
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27519,12 +27519,12 @@
       <c r="H643" t="inlineStr"/>
       <c r="I643" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27603,12 +27603,12 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27729,12 +27729,12 @@
       <c r="H648" t="inlineStr"/>
       <c r="I648" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27897,12 +27897,12 @@
       <c r="H652" t="inlineStr"/>
       <c r="I652" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -28275,12 +28275,12 @@
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28317,12 +28317,12 @@
       <c r="H662" t="inlineStr"/>
       <c r="I662" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -28909,12 +28909,12 @@
       <c r="H676" t="inlineStr"/>
       <c r="I676" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28951,12 +28951,12 @@
       <c r="H677" t="inlineStr"/>
       <c r="I677" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28993,12 +28993,12 @@
       <c r="H678" t="inlineStr"/>
       <c r="I678" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29035,12 +29035,12 @@
       <c r="H679" t="inlineStr"/>
       <c r="I679" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29203,12 +29203,12 @@
       <c r="H683" t="inlineStr"/>
       <c r="I683" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29921,12 +29921,12 @@
       <c r="H700" t="inlineStr"/>
       <c r="I700" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J700" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -30849,12 +30849,12 @@
       <c r="H722" t="inlineStr"/>
       <c r="I722" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31101,12 +31101,12 @@
       <c r="H728" t="inlineStr"/>
       <c r="I728" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J728" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31269,12 +31269,12 @@
       <c r="H732" t="inlineStr"/>
       <c r="I732" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J732" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -31353,12 +31353,12 @@
       <c r="H734" t="inlineStr"/>
       <c r="I734" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J734" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31815,12 +31815,12 @@
       <c r="H745" t="inlineStr"/>
       <c r="I745" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J745" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31857,12 +31857,12 @@
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31941,12 +31941,12 @@
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J748" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31983,12 +31983,12 @@
       <c r="H749" t="inlineStr"/>
       <c r="I749" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J749" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
